--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Mario\Gini\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A654E09-11B1-4583-A732-C1CD84F06448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE3B93-6C57-40FA-B709-6C774D42463F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9968" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Label</t>
   </si>
@@ -222,6 +222,27 @@
   </si>
   <si>
     <t>ADP</t>
+  </si>
+  <si>
+    <t>m1_Sal_d15_ipsiACC</t>
+  </si>
+  <si>
+    <t>m2_Sal_d15_ipsiACC</t>
+  </si>
+  <si>
+    <t>t16</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>t31</t>
+  </si>
+  <si>
+    <t>t36</t>
+  </si>
+  <si>
+    <t>t3</t>
   </si>
 </sst>
 </file>
@@ -295,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -318,6 +339,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,18 +655,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F27D14E-5218-4C12-A051-D8A9399440F5}">
-  <dimension ref="A1:AR31"/>
+  <dimension ref="A1:AR52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -753,7 +777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -789,7 +813,7 @@
       <c r="AH2" s="6"/>
       <c r="AI2" s="6"/>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -898,7 +922,7 @@
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
     </row>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1010,7 +1034,7 @@
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1122,7 +1146,7 @@
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1231,7 +1255,7 @@
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
     </row>
-    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1340,7 +1364,7 @@
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
     </row>
-    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1452,7 +1476,7 @@
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
     </row>
-    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1564,7 +1588,7 @@
       <c r="AQ9" s="10"/>
       <c r="AR9" s="10"/>
     </row>
-    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1676,7 +1700,7 @@
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
     </row>
-    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1788,7 +1812,7 @@
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
     </row>
-    <row r="12" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1900,7 +1924,7 @@
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
     </row>
-    <row r="13" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2012,7 +2036,7 @@
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
     </row>
-    <row r="14" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2124,7 +2148,7 @@
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
     </row>
-    <row r="15" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2233,7 +2257,7 @@
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
     </row>
-    <row r="16" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2345,7 +2369,7 @@
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
     </row>
-    <row r="17" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2457,7 +2481,7 @@
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
     </row>
-    <row r="18" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2566,7 +2590,7 @@
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
     </row>
-    <row r="19" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2675,7 +2699,7 @@
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
     </row>
-    <row r="20" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2787,7 +2811,7 @@
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
     </row>
-    <row r="21" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2896,7 +2920,7 @@
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
     </row>
-    <row r="22" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -3005,7 +3029,7 @@
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
     </row>
-    <row r="23" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -3117,7 +3141,7 @@
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
     </row>
-    <row r="24" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>0</v>
       </c>
@@ -3229,7 +3253,7 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
     </row>
-    <row r="25" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -3338,7 +3362,7 @@
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
     </row>
-    <row r="26" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>0</v>
       </c>
@@ -3450,7 +3474,7 @@
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
     </row>
-    <row r="27" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>0</v>
       </c>
@@ -3559,7 +3583,7 @@
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
     </row>
-    <row r="28" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -3668,7 +3692,7 @@
       <c r="AQ28" s="9"/>
       <c r="AR28" s="9"/>
     </row>
-    <row r="29" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>0</v>
       </c>
@@ -3777,7 +3801,7 @@
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
     </row>
-    <row r="30" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>0</v>
       </c>
@@ -3886,7 +3910,109 @@
       <c r="AQ30" s="9"/>
       <c r="AR30" s="9"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>0</v>
+      </c>
+      <c r="B31" s="16">
+        <v>230516</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="16">
+        <v>488.51799999999997</v>
+      </c>
+      <c r="G31" s="16">
+        <v>285.88</v>
+      </c>
+      <c r="H31" s="16">
+        <v>7.2450000000000001</v>
+      </c>
+      <c r="I31" s="16">
+        <v>49.764000000000003</v>
+      </c>
+      <c r="J31" s="16">
+        <v>137.768</v>
+      </c>
+      <c r="K31" s="16">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="L31" s="16">
+        <v>9.5860000000000003</v>
+      </c>
+      <c r="M31" s="16">
+        <v>229.46899999999999</v>
+      </c>
+      <c r="N31" s="16">
+        <v>126.491</v>
+      </c>
+      <c r="O31" s="16">
+        <v>5</v>
+      </c>
+      <c r="P31" s="16">
+        <v>305.01499999999999</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>172.86099999999999</v>
+      </c>
+      <c r="R31" s="16">
+        <v>29.152999999999999</v>
+      </c>
+      <c r="S31" s="16">
+        <v>4</v>
+      </c>
+      <c r="T31" s="16">
+        <v>7</v>
+      </c>
+      <c r="U31" s="17">
+        <v>1.0156867210790099</v>
+      </c>
+      <c r="V31" s="17">
+        <v>1.372802734375</v>
+      </c>
+      <c r="W31" s="17">
+        <v>81.085591634114607</v>
+      </c>
+      <c r="X31" s="17">
+        <v>-66.739918518066403</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>734.01078086576638</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>14.598550492505685</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="17">
+        <v>110.63831787109376</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>1.1524261134964888</v>
+      </c>
+      <c r="AE31" s="17">
+        <v>204.54719924926758</v>
+      </c>
+      <c r="AF31" s="17">
+        <v>81.993598937988281</v>
+      </c>
+      <c r="AG31" s="17">
+        <v>4.3367996215820313</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16">
+        <v>0.43081000000000003</v>
+      </c>
       <c r="AK31" s="9"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
@@ -3896,6 +4022,940 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
     </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" s="16">
+        <v>230516</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="16">
+        <v>455.60300000000001</v>
+      </c>
+      <c r="G32" s="16">
+        <v>270.37700000000001</v>
+      </c>
+      <c r="H32" s="16">
+        <v>2.3959999999999999</v>
+      </c>
+      <c r="I32" s="16">
+        <v>50.131</v>
+      </c>
+      <c r="J32" s="16">
+        <v>154.56700000000001</v>
+      </c>
+      <c r="K32" s="16">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="L32" s="16">
+        <v>13.491</v>
+      </c>
+      <c r="M32" s="16">
+        <v>109.56699999999999</v>
+      </c>
+      <c r="N32" s="16">
+        <v>148.369</v>
+      </c>
+      <c r="O32" s="16">
+        <v>6</v>
+      </c>
+      <c r="P32" s="16">
+        <v>179.21</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>168.73599999999999</v>
+      </c>
+      <c r="R32" s="16">
+        <v>27.901</v>
+      </c>
+      <c r="S32" s="16">
+        <v>5</v>
+      </c>
+      <c r="T32" s="16">
+        <v>5</v>
+      </c>
+      <c r="U32" s="17">
+        <v>1.0798209105468399</v>
+      </c>
+      <c r="V32" s="17">
+        <v>3.3384017944335938</v>
+      </c>
+      <c r="W32" s="17">
+        <v>21.455201466878243</v>
+      </c>
+      <c r="X32" s="17">
+        <v>-61.579438400268558</v>
+      </c>
+      <c r="Y32" s="17">
+        <v>178.02064383377206</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>28.064124724547373</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="17">
+        <v>100.39223594665526</v>
+      </c>
+      <c r="AD32" s="17">
+        <v>0.96640296866911513</v>
+      </c>
+      <c r="AE32" s="17">
+        <v>233.87519073486328</v>
+      </c>
+      <c r="AF32" s="17">
+        <v>89.855995178222656</v>
+      </c>
+      <c r="AG32" s="17">
+        <v>1.1400032043457</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="17">
+        <v>1.2791999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="16">
+        <v>230516</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="16">
+        <v>462.93599999999998</v>
+      </c>
+      <c r="G33" s="16">
+        <v>264.15300000000002</v>
+      </c>
+      <c r="H33" s="16">
+        <v>16.321999999999999</v>
+      </c>
+      <c r="I33" s="16">
+        <v>47.154000000000003</v>
+      </c>
+      <c r="J33" s="16">
+        <v>139.97499999999999</v>
+      </c>
+      <c r="K33" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="L33" s="16">
+        <v>11.109</v>
+      </c>
+      <c r="M33" s="16">
+        <v>114.633</v>
+      </c>
+      <c r="N33" s="16">
+        <v>93.808000000000007</v>
+      </c>
+      <c r="O33" s="16">
+        <v>4</v>
+      </c>
+      <c r="P33" s="16">
+        <v>200.19900000000001</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>145.417</v>
+      </c>
+      <c r="R33" s="16">
+        <v>28.782</v>
+      </c>
+      <c r="S33" s="16">
+        <v>3</v>
+      </c>
+      <c r="T33" s="16">
+        <v>4</v>
+      </c>
+      <c r="U33" s="17">
+        <v>1.1000007722067351</v>
+      </c>
+      <c r="V33" s="17">
+        <v>0.592803955078125</v>
+      </c>
+      <c r="W33" s="17">
+        <v>20.872787475585945</v>
+      </c>
+      <c r="X33" s="17">
+        <v>-66.683758544921872</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>725.17940791155434</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>10.95783049103898</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="17">
+        <v>103.31255798339845</v>
+      </c>
+      <c r="AD33" s="17">
+        <v>1.3988190451550651</v>
+      </c>
+      <c r="AE33" s="17">
+        <v>171.10079193115234</v>
+      </c>
+      <c r="AF33" s="17">
+        <v>67.142398834228516</v>
+      </c>
+      <c r="AG33" s="17">
+        <v>4.5551986694335938</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="17">
+        <v>0.87360000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="16">
+        <v>230516</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="16">
+        <v>448.75799999999998</v>
+      </c>
+      <c r="G34" s="16">
+        <v>249.99299999999999</v>
+      </c>
+      <c r="H34" s="16">
+        <v>8.5150000000000006</v>
+      </c>
+      <c r="I34" s="16">
+        <v>45.253</v>
+      </c>
+      <c r="J34" s="16">
+        <v>139.559</v>
+      </c>
+      <c r="K34" s="16">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="L34" s="16">
+        <v>10.476000000000001</v>
+      </c>
+      <c r="M34" s="16">
+        <v>101.542</v>
+      </c>
+      <c r="N34" s="16">
+        <v>62.819000000000003</v>
+      </c>
+      <c r="O34" s="16">
+        <v>4</v>
+      </c>
+      <c r="P34" s="16">
+        <v>218.96600000000001</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>161.71199999999999</v>
+      </c>
+      <c r="R34" s="16">
+        <v>22.1</v>
+      </c>
+      <c r="S34" s="16">
+        <v>3</v>
+      </c>
+      <c r="T34" s="16">
+        <v>6</v>
+      </c>
+      <c r="U34" s="17">
+        <v>1.1091946753911104</v>
+      </c>
+      <c r="V34" s="17">
+        <v>0.59279632568359375</v>
+      </c>
+      <c r="W34" s="17">
+        <v>12.46960957845052</v>
+      </c>
+      <c r="X34" s="17">
+        <v>-60.967918395996094</v>
+      </c>
+      <c r="Y34" s="17">
+        <v>296.45416940880352</v>
+      </c>
+      <c r="Z34" s="17">
+        <v>10.0092573819168</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="17">
+        <v>90.420717239379883</v>
+      </c>
+      <c r="AD34" s="17">
+        <v>0.99890532531570386</v>
+      </c>
+      <c r="AE34" s="17">
+        <v>179.33759307861328</v>
+      </c>
+      <c r="AF34" s="17">
+        <v>80.870397567749023</v>
+      </c>
+      <c r="AG34" s="17">
+        <v>3.61920166015625</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="16"/>
+      <c r="AJ34" s="17">
+        <v>0.12479999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16">
+        <v>230517</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="16">
+        <v>463.50900000000001</v>
+      </c>
+      <c r="G35" s="16">
+        <v>287.42</v>
+      </c>
+      <c r="H35" s="16">
+        <v>10.898999999999999</v>
+      </c>
+      <c r="I35" s="16">
+        <v>48.51</v>
+      </c>
+      <c r="J35" s="16">
+        <v>167.988</v>
+      </c>
+      <c r="K35" s="16">
+        <v>2.411</v>
+      </c>
+      <c r="L35" s="16">
+        <v>11.862</v>
+      </c>
+      <c r="M35" s="16">
+        <v>138.255</v>
+      </c>
+      <c r="N35" s="16">
+        <v>92.156000000000006</v>
+      </c>
+      <c r="O35" s="16">
+        <v>4</v>
+      </c>
+      <c r="P35" s="16">
+        <v>146.75200000000001</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>143.41</v>
+      </c>
+      <c r="R35" s="16">
+        <v>32.921999999999997</v>
+      </c>
+      <c r="S35" s="16">
+        <v>2</v>
+      </c>
+      <c r="T35" s="16">
+        <v>5</v>
+      </c>
+      <c r="U35" s="17">
+        <v>1.087248670938773</v>
+      </c>
+      <c r="V35" s="17">
+        <v>1.2168045043945313</v>
+      </c>
+      <c r="W35" s="16">
+        <v>33.654396057128885</v>
+      </c>
+      <c r="X35" s="16">
+        <v>-68.215677642822271</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>280.19009318985172</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>28.358970315624227</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16">
+        <v>115.85807647705079</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>1.3819744675938068</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>225.51359558105469</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>59.654396057128906</v>
+      </c>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="16"/>
+      <c r="AJ35" s="16">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>0</v>
+      </c>
+      <c r="B36" s="16">
+        <v>230517</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="16">
+        <v>385.11700000000002</v>
+      </c>
+      <c r="G36" s="16">
+        <v>219.255</v>
+      </c>
+      <c r="H36" s="16">
+        <v>3.95</v>
+      </c>
+      <c r="I36" s="16">
+        <v>58.874000000000002</v>
+      </c>
+      <c r="J36" s="16">
+        <v>181.38399999999999</v>
+      </c>
+      <c r="K36" s="16">
+        <v>2.077</v>
+      </c>
+      <c r="L36" s="16">
+        <v>11.942</v>
+      </c>
+      <c r="M36" s="16">
+        <v>141.62</v>
+      </c>
+      <c r="N36" s="16">
+        <v>122.70399999999999</v>
+      </c>
+      <c r="O36" s="16">
+        <v>6</v>
+      </c>
+      <c r="P36" s="16">
+        <v>84.180999999999997</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>157.97499999999999</v>
+      </c>
+      <c r="R36" s="16">
+        <v>35.323</v>
+      </c>
+      <c r="S36" s="16">
+        <v>4</v>
+      </c>
+      <c r="T36" s="16">
+        <v>7</v>
+      </c>
+      <c r="U36" s="17">
+        <v>1.2238798071483579</v>
+      </c>
+      <c r="V36" s="17">
+        <v>1.8719940185546875</v>
+      </c>
+      <c r="W36" s="17">
+        <v>30.8568115234375</v>
+      </c>
+      <c r="X36" s="17">
+        <v>-61.878958129882811</v>
+      </c>
+      <c r="Y36" s="17">
+        <v>148.55611539047482</v>
+      </c>
+      <c r="Z36" s="17">
+        <v>34.398840828848918</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="16"/>
+      <c r="AC36" s="17">
+        <v>113.76455535888672</v>
+      </c>
+      <c r="AD36" s="17">
+        <v>0.95222826860390342</v>
+      </c>
+      <c r="AE36" s="17">
+        <v>297.14878845214844</v>
+      </c>
+      <c r="AF36" s="17">
+        <v>86.985597133636475</v>
+      </c>
+      <c r="AG36" s="17">
+        <v>0.75872689938398363</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="16"/>
+      <c r="AJ36" s="17">
+        <v>1.1544000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>0</v>
+      </c>
+      <c r="B37" s="16">
+        <v>230517</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="16">
+        <v>491.916</v>
+      </c>
+      <c r="G37" s="16">
+        <v>315.81799999999998</v>
+      </c>
+      <c r="H37" s="16">
+        <v>18.914000000000001</v>
+      </c>
+      <c r="I37" s="16">
+        <v>50.210999999999999</v>
+      </c>
+      <c r="J37" s="16">
+        <v>151.22300000000001</v>
+      </c>
+      <c r="K37" s="16">
+        <v>2.137</v>
+      </c>
+      <c r="L37" s="16">
+        <v>13.134</v>
+      </c>
+      <c r="M37" s="16">
+        <v>201.89400000000001</v>
+      </c>
+      <c r="N37" s="16">
+        <v>104.96899999999999</v>
+      </c>
+      <c r="O37" s="16">
+        <v>2</v>
+      </c>
+      <c r="P37" s="16">
+        <v>170.863</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>179.50800000000001</v>
+      </c>
+      <c r="R37" s="16">
+        <v>49.951000000000001</v>
+      </c>
+      <c r="S37" s="16">
+        <v>8</v>
+      </c>
+      <c r="T37" s="16">
+        <v>14</v>
+      </c>
+      <c r="U37" s="17">
+        <v>1.081280961745211</v>
+      </c>
+      <c r="V37" s="17">
+        <v>1.02960205078125</v>
+      </c>
+      <c r="W37" s="17">
+        <v>49.254391988118485</v>
+      </c>
+      <c r="X37" s="17">
+        <v>-70.181278228759766</v>
+      </c>
+      <c r="Y37" s="17">
+        <v>-165.60092913592374</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>50.252262471822824</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16"/>
+      <c r="AC37" s="17">
+        <v>97.606077194213867</v>
+      </c>
+      <c r="AD37" s="17">
+        <v>2.055660764276098</v>
+      </c>
+      <c r="AE37" s="17">
+        <v>136.53119850158691</v>
+      </c>
+      <c r="AF37" s="17">
+        <v>35.443197518587112</v>
+      </c>
+      <c r="AG37" s="16"/>
+      <c r="AH37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="16"/>
+      <c r="AJ37" s="17">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>0</v>
+      </c>
+      <c r="B38" s="16">
+        <v>230517</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="16">
+        <v>411.25900000000001</v>
+      </c>
+      <c r="G38" s="16">
+        <v>266.74400000000003</v>
+      </c>
+      <c r="H38" s="16">
+        <v>14.57</v>
+      </c>
+      <c r="I38" s="16">
+        <v>40.238999999999997</v>
+      </c>
+      <c r="J38" s="16">
+        <v>131.30600000000001</v>
+      </c>
+      <c r="K38" s="16">
+        <v>2.863</v>
+      </c>
+      <c r="L38" s="16">
+        <v>13.068</v>
+      </c>
+      <c r="M38" s="16">
+        <v>146.75200000000001</v>
+      </c>
+      <c r="N38" s="16">
+        <v>86.369</v>
+      </c>
+      <c r="O38" s="16">
+        <v>4</v>
+      </c>
+      <c r="P38" s="16">
+        <v>173.465</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>138.59800000000001</v>
+      </c>
+      <c r="R38" s="16">
+        <v>37.442999999999998</v>
+      </c>
+      <c r="S38" s="16">
+        <v>3</v>
+      </c>
+      <c r="T38" s="16">
+        <v>6</v>
+      </c>
+      <c r="U38" s="17">
+        <v>1.1315383313143801</v>
+      </c>
+      <c r="V38" s="17">
+        <v>2.5271987915039063</v>
+      </c>
+      <c r="W38" s="17">
+        <v>27.41440709431965</v>
+      </c>
+      <c r="X38" s="17">
+        <v>-64.877278518676761</v>
+      </c>
+      <c r="Y38" s="17">
+        <v>249.87634115508433</v>
+      </c>
+      <c r="Z38" s="17">
+        <v>34.786725186667695</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="17">
+        <v>96.295678329467762</v>
+      </c>
+      <c r="AD38" s="17">
+        <v>1.368265627645826</v>
+      </c>
+      <c r="AE38" s="17">
+        <v>174.47039794921875</v>
+      </c>
+      <c r="AF38" s="17">
+        <v>64.771199226379395</v>
+      </c>
+      <c r="AG38" s="16"/>
+      <c r="AH38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="16"/>
+      <c r="AJ38" s="17">
+        <v>1.8404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>0</v>
+      </c>
+      <c r="B39" s="16">
+        <v>230517</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="16">
+        <v>386.74299999999999</v>
+      </c>
+      <c r="G39" s="16">
+        <v>283.31400000000002</v>
+      </c>
+      <c r="H39" s="16">
+        <v>23.617000000000001</v>
+      </c>
+      <c r="I39" s="16">
+        <v>47.156999999999996</v>
+      </c>
+      <c r="J39" s="16">
+        <v>146.20500000000001</v>
+      </c>
+      <c r="K39" s="16">
+        <v>2.2770000000000001</v>
+      </c>
+      <c r="L39" s="16">
+        <v>12.039</v>
+      </c>
+      <c r="M39" s="16">
+        <v>187.32300000000001</v>
+      </c>
+      <c r="N39" s="16">
+        <v>71.686000000000007</v>
+      </c>
+      <c r="O39" s="16">
+        <v>4</v>
+      </c>
+      <c r="P39" s="16">
+        <v>185.12299999999999</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>135.93</v>
+      </c>
+      <c r="R39" s="16">
+        <v>26.933</v>
+      </c>
+      <c r="S39" s="16">
+        <v>3</v>
+      </c>
+      <c r="T39" s="16">
+        <v>6</v>
+      </c>
+      <c r="U39" s="17">
+        <v>1.1737083434743276</v>
+      </c>
+      <c r="V39" s="17">
+        <v>1.1543960571289063</v>
+      </c>
+      <c r="W39" s="17">
+        <v>22.245602925618467</v>
+      </c>
+      <c r="X39" s="17">
+        <v>-78.25271835327149</v>
+      </c>
+      <c r="Y39" s="17">
+        <v>873.32677524132293</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>11.763446148098266</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="17">
+        <v>110.91911926269532</v>
+      </c>
+      <c r="AD39" s="17">
+        <v>1.503601709681945</v>
+      </c>
+      <c r="AE39" s="17">
+        <v>167.98079681396484</v>
+      </c>
+      <c r="AF39" s="17">
+        <v>62.524801731109619</v>
+      </c>
+      <c r="AG39" s="17">
+        <v>4.7736015319824219</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="17">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>0</v>
+      </c>
+      <c r="B40" s="16">
+        <v>230517</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="16">
+        <v>416.77600000000001</v>
+      </c>
+      <c r="G40" s="16">
+        <v>270.72199999999998</v>
+      </c>
+      <c r="H40" s="16">
+        <v>20.803000000000001</v>
+      </c>
+      <c r="I40" s="16">
+        <v>44.854999999999997</v>
+      </c>
+      <c r="J40" s="16">
+        <v>133.267</v>
+      </c>
+      <c r="K40" s="16">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="L40" s="16">
+        <v>11.375999999999999</v>
+      </c>
+      <c r="M40" s="16">
+        <v>150.595</v>
+      </c>
+      <c r="N40" s="16">
+        <v>83.793999999999997</v>
+      </c>
+      <c r="O40" s="16">
+        <v>5</v>
+      </c>
+      <c r="P40" s="16">
+        <v>148.654</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>139.35900000000001</v>
+      </c>
+      <c r="R40" s="16">
+        <v>34.054000000000002</v>
+      </c>
+      <c r="S40" s="16">
+        <v>4</v>
+      </c>
+      <c r="T40" s="16">
+        <v>7</v>
+      </c>
+      <c r="U40" s="17">
+        <v>1.0797103182724705</v>
+      </c>
+      <c r="V40" s="17">
+        <v>0.6864013671875</v>
+      </c>
+      <c r="W40" s="17">
+        <v>28.183993021647112</v>
+      </c>
+      <c r="X40" s="17">
+        <v>-71.666399383544928</v>
+      </c>
+      <c r="Y40" s="17">
+        <v>675.98464604688286</v>
+      </c>
+      <c r="Z40" s="17">
+        <v>11.150314314311965</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="17">
+        <v>93.693598175048834</v>
+      </c>
+      <c r="AD40" s="17">
+        <v>1.3876212074342362</v>
+      </c>
+      <c r="AE40" s="17">
+        <v>137.40479469299316</v>
+      </c>
+      <c r="AF40" s="17">
+        <v>60.403200149536133</v>
+      </c>
+      <c r="AG40" s="17">
+        <v>1.466400146484375</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="17">
+        <v>1.0296000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AE3B93-6C57-40FA-B709-6C774D42463F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F0E5C-F5EE-4238-9E10-6148ED262823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="1128" yWindow="1956" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>Label</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>t3</t>
+  </si>
+  <si>
+    <t>Capacitance</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -341,6 +344,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F27D14E-5218-4C12-A051-D8A9399440F5}">
-  <dimension ref="A1:AR52"/>
+  <dimension ref="A1:AR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:AN55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,34 +750,37 @@
       <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -803,15 +810,15 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="7"/>
       <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
     </row>
     <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -892,28 +899,30 @@
       <c r="Z3" s="1">
         <v>9.3873375630055289</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3" s="18">
+        <v>8.4610859289579232E-2</v>
+      </c>
+      <c r="AB3" s="1">
         <v>0.64740566037735858</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <v>96.632637023925781</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
         <v>0.88588325635726584</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <v>219.27360153198242</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <v>94.473598480224609</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AI3" s="1">
         <v>141.59292035398229</v>
       </c>
-      <c r="AJ3" s="14">
+      <c r="AK3" s="14">
         <v>7.3</v>
       </c>
-      <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
@@ -1002,30 +1011,32 @@
         <v>12.768731151494228</v>
       </c>
       <c r="AA4" s="1">
+        <v>0.11117009879341999</v>
+      </c>
+      <c r="AB4" s="1">
         <v>0.40902474526928667</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <v>94.33631706237793</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>0.89042720860052071</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>215.27999114990234</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>86.611198902130127</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>0.31200027465820313</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>149.53271028037383</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AK4" s="11">
         <v>7.6752000000000002</v>
       </c>
-      <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
@@ -1114,30 +1125,32 @@
         <v>10.434346714627889</v>
       </c>
       <c r="AA5" s="1">
+        <v>6.5456862131306359E-2</v>
+      </c>
+      <c r="AB5" s="1">
         <v>0.44479004665629862</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <v>102.34319569514349</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>0.98764887984519156</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>20659.235712443769</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>246.35519409179688</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>80.745601654052734</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>129.03225806451613</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AK5" s="15">
         <v>8.5488</v>
       </c>
-      <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9"/>
@@ -1226,27 +1239,29 @@
         <v>9.2378725548882255</v>
       </c>
       <c r="AA6" s="1">
+        <v>9.709848154465249E-2</v>
+      </c>
+      <c r="AB6" s="1">
         <v>0.1075268817204301</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <v>80.72063751220702</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>1.1324077066418248</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>152.2559986114502</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>63.148798942565918</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>166.66666666666669</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AK6" s="11">
         <v>6.8639999999999999</v>
       </c>
-      <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="9"/>
@@ -1334,28 +1349,30 @@
       <c r="Z7" s="2">
         <v>3.8772849582433357</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
+        <v>4.9132296358992245E-2</v>
+      </c>
+      <c r="AB7" s="2">
         <v>0.13219094247246022</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>80.689438629150388</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>1.1682877450307139</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>143.39520072937012</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>58.406397819519043</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AI7" s="2">
         <v>176.99115044247787</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AK7" s="11">
         <v>8.4239999999999995</v>
       </c>
-      <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="9"/>
@@ -1444,30 +1461,32 @@
         <v>4.2619707854089475</v>
       </c>
       <c r="AA8" s="2">
+        <v>4.4679989699251521E-2</v>
+      </c>
+      <c r="AB8" s="2">
         <v>0.28003696857670984</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <v>74.655358123779294</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AE8" s="2">
         <v>1.2928535915563515</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AF8" s="2">
         <v>129.91680145263672</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AG8" s="2">
         <v>55.161599308252335</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AH8" s="2">
         <v>2.5271987915039063</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AI8" s="2">
         <v>115.46391752577317</v>
       </c>
-      <c r="AJ8" s="12">
+      <c r="AK8" s="12">
         <v>8.2368000000000006</v>
       </c>
-      <c r="AK8" s="10"/>
       <c r="AL8" s="10"/>
       <c r="AM8" s="10"/>
       <c r="AN8" s="10"/>
@@ -1555,31 +1574,33 @@
       <c r="Z9" s="3">
         <v>9.3973171439373804</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="2">
+        <v>9.3403780741572628E-2</v>
+      </c>
+      <c r="AB9" s="3">
         <v>0.42873432155074115</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>85.475517272949219</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1.3841862989679043</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>134.28479385375977</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AG9" s="3">
         <v>53.164798736572266</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AH9" s="3">
         <v>13.946399688720703</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AI9" s="2">
         <v>238.80597014925371</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AK9" s="12">
         <v>6.8015999999999996</v>
       </c>
-      <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
       <c r="AM9" s="10"/>
       <c r="AN9" s="10"/>
@@ -1667,31 +1688,33 @@
       <c r="Z10" s="3">
         <v>9.2598681789534449</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="2">
+        <v>9.2882524146701104E-2</v>
+      </c>
+      <c r="AB10" s="3">
         <v>0.65454545454545454</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>76.764478874206546</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1.1271616263761963</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>117.93599605560303</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AG10" s="3">
         <v>50.793597221374512</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AH10" s="3">
         <v>2.683197021484375</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AI10" s="2">
         <v>0</v>
       </c>
-      <c r="AJ10" s="12">
+      <c r="AK10" s="12">
         <v>4.3368000000000002</v>
       </c>
-      <c r="AK10" s="10"/>
       <c r="AL10" s="10"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
@@ -1779,31 +1802,33 @@
       <c r="Z11" s="3">
         <v>6.2599989481466674</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="2">
+        <v>5.8518661944116805E-2</v>
+      </c>
+      <c r="AB11" s="3">
         <v>0.57412935323383085</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AD11" s="3">
         <v>76.078076267242437</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AE11" s="3">
         <v>1.0594391524923523</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AF11" s="3">
         <v>143.02078819274902</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AG11" s="3">
         <v>59.779199600219727</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AH11" s="3">
         <v>1.3416023254394531</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AI11" s="3">
         <v>271.18644067796612</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AK11" s="12">
         <v>5.7408000000000001</v>
       </c>
-      <c r="AK11" s="10"/>
       <c r="AL11" s="10"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
@@ -1891,31 +1916,33 @@
       <c r="Z12" s="1">
         <v>10.86035989853354</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="2">
+        <v>8.2957211678098164E-2</v>
+      </c>
+      <c r="AB12" s="1">
         <v>0.31731984829329962</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <v>112.04543991088866</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>1.1163522867198807</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <v>203.79839324951172</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <v>69.763202667236328</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <v>2.1215972900390625</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>197.53086419753089</v>
       </c>
-      <c r="AJ12" s="12">
+      <c r="AK12" s="12">
         <v>9.5784000000000002</v>
       </c>
-      <c r="AK12" s="10"/>
       <c r="AL12" s="10"/>
       <c r="AM12" s="10"/>
       <c r="AN12" s="10"/>
@@ -2004,30 +2031,32 @@
         <v>9.8054583081365259</v>
       </c>
       <c r="AA13" s="1">
+        <v>8.2668360789136155E-2</v>
+      </c>
+      <c r="AB13" s="1">
         <v>0.44677419354838716</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <v>94.769998550415039</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>1.0927261019959289</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <v>174.09599685668945</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <v>79.497596740722656</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <v>2.93280029296875</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <v>242.42424242424241</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AK13" s="11">
         <v>5.3040000000000003</v>
       </c>
-      <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
@@ -2116,30 +2145,32 @@
         <v>7.8400207207263861</v>
       </c>
       <c r="AA14" s="1">
+        <v>0.13553547426361454</v>
+      </c>
+      <c r="AB14" s="1">
         <v>0.6560509554140127</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <v>99.989756774902332</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>1.1107206014497741</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>211.53599548339844</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>80.121597290039063</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>1.3103981018066406</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>0</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AK14" s="11">
         <v>3.2136</v>
       </c>
-      <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9"/>
@@ -2228,27 +2259,29 @@
         <v>7.4624086723082632</v>
       </c>
       <c r="AA15" s="1">
+        <v>5.246321257879745E-2</v>
+      </c>
+      <c r="AB15" s="1">
         <v>0.57171117705242325</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <v>96.417357635498036</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>0.94149861686122449</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>207.41759490966797</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>89.481594085693359</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>238.80597014925371</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AK15" s="11">
         <v>11.638</v>
       </c>
-      <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -2337,30 +2370,32 @@
         <v>8.629055300021065</v>
       </c>
       <c r="AA16" s="1">
+        <v>0.10761568456302112</v>
+      </c>
+      <c r="AB16" s="1">
         <v>0.35352422907488984</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <v>102.14879684448243</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <v>1.2178108241504688</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <v>198.43199157714844</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <v>63.523200035095215</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>6.302398681640625</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <v>164.94845360824741</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AK16" s="11">
         <v>10.358000000000001</v>
       </c>
-      <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9"/>
@@ -2449,30 +2484,32 @@
         <v>8.3432087808633</v>
       </c>
       <c r="AA17" s="1">
+        <v>9.1131618695540123E-2</v>
+      </c>
+      <c r="AB17" s="1">
         <v>0.63364485981308405</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>88.224238967895502</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>1.4282470020051896</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>158.62080001831055</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>45.801598072052002</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>0.28079986572265625</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>0</v>
       </c>
-      <c r="AJ17" s="11">
+      <c r="AK17" s="11">
         <v>5.0544000000000002</v>
       </c>
-      <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
       <c r="AM17" s="9"/>
       <c r="AN17" s="9"/>
@@ -2561,27 +2598,29 @@
         <v>32.497838930464667</v>
       </c>
       <c r="AA18" s="1">
+        <v>0.22993321189775917</v>
+      </c>
+      <c r="AB18" s="1">
         <v>0.40428571428571425</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AD18" s="1">
         <v>106.14239578247071</v>
       </c>
-      <c r="AD18" s="1">
+      <c r="AE18" s="1">
         <v>1.1797852560458759</v>
       </c>
-      <c r="AE18" s="1">
+      <c r="AF18" s="1">
         <v>272.43840026855469</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AG18" s="1">
         <v>75.753599166870117</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AI18" s="1">
         <v>147.23926380368098</v>
       </c>
-      <c r="AJ18" s="15">
+      <c r="AK18" s="15">
         <v>4.1807999999999996</v>
       </c>
-      <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
@@ -2670,27 +2709,29 @@
         <v>7.3633163133105857</v>
       </c>
       <c r="AA19" s="1">
+        <v>0.12117255481046554</v>
+      </c>
+      <c r="AB19" s="1">
         <v>0.12285714285714286</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AD19" s="1">
         <v>114.99383659362792</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AE19" s="1">
         <v>0.95247443763236816</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AF19" s="1">
         <v>292.78079223632813</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AG19" s="1">
         <v>88.233596801757813</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <v>140.35087719298244</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AK19" s="11">
         <v>6.6768000000000001</v>
       </c>
-      <c r="AK19" s="9"/>
       <c r="AL19" s="9"/>
       <c r="AM19" s="9"/>
       <c r="AN19" s="9"/>
@@ -2779,30 +2820,32 @@
         <v>11.158352792537027</v>
       </c>
       <c r="AA20" s="1">
+        <v>0.10798294044869483</v>
+      </c>
+      <c r="AB20" s="1">
         <v>0.59379844961240313</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AD20" s="1">
         <v>114.17327804565429</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>0.97610023244142496</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AF20" s="1">
         <v>241.23838806152344</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <v>86.486398696899414</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>1.4351997375488281</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AI20" s="1">
         <v>0</v>
       </c>
-      <c r="AJ20" s="11">
+      <c r="AK20" s="11">
         <v>7.1135999999999999</v>
       </c>
-      <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
       <c r="AN20" s="9"/>
@@ -2891,27 +2934,29 @@
         <v>10.695772072547435</v>
       </c>
       <c r="AA21" s="1">
+        <v>6.125312226122321E-2</v>
+      </c>
+      <c r="AB21" s="1">
         <v>0</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <v>80.87351722717284</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>1.0659451613782949</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <v>157.12319660186768</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <v>75.503997802734375</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AI21" s="1">
         <v>0</v>
       </c>
-      <c r="AJ21" s="11">
+      <c r="AK21" s="11">
         <v>1.1856</v>
       </c>
-      <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9"/>
@@ -3000,27 +3045,29 @@
         <v>7.9005049636582303</v>
       </c>
       <c r="AA22" s="1">
+        <v>4.1924066222939621E-2</v>
+      </c>
+      <c r="AB22" s="1">
         <v>0</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <v>98.336158370971674</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <v>1.7836296256680839</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AF22" s="1">
         <v>147.38879585266113</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AG22" s="1">
         <v>41.184000253677368</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AI22" s="1">
         <v>0</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AK22" s="11">
         <v>2.5583999999999998</v>
       </c>
-      <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
@@ -3109,30 +3156,32 @@
         <v>15.063201172258813</v>
       </c>
       <c r="AA23" s="1">
+        <v>0.3506136509397651</v>
+      </c>
+      <c r="AB23" s="1">
         <v>0.76903870162297139</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <v>87.481678009033203</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AE23" s="1">
         <v>0.88464292543460488</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AF23" s="1">
         <v>194.56319427490234</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AG23" s="1">
         <v>91.977596282958984</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AH23" s="1">
         <v>1.1543998718261719</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AI23" s="1">
         <v>0</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AK23" s="11">
         <v>2.4024000000000001</v>
       </c>
-      <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
@@ -3221,30 +3270,32 @@
         <v>9.4185301100910408</v>
       </c>
       <c r="AA24" s="4">
+        <v>6.1893650289496845E-2</v>
+      </c>
+      <c r="AB24" s="4">
         <v>0.7065693430656933</v>
       </c>
-      <c r="AC24" s="4">
+      <c r="AD24" s="4">
         <v>86.636157989501953</v>
       </c>
-      <c r="AD24" s="4">
+      <c r="AE24" s="4">
         <v>1.97248012626554</v>
       </c>
-      <c r="AE24" s="4">
+      <c r="AF24" s="4">
         <v>142.64639610052109</v>
       </c>
-      <c r="AF24" s="4">
+      <c r="AG24" s="4">
         <v>42.182399749755859</v>
       </c>
-      <c r="AG24" s="4">
+      <c r="AH24" s="4">
         <v>0.1248016357421875</v>
       </c>
-      <c r="AH24" s="4">
+      <c r="AI24" s="4">
         <v>0</v>
       </c>
-      <c r="AJ24" s="13">
+      <c r="AK24" s="13">
         <v>1.0296000000000001</v>
       </c>
-      <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
@@ -3333,27 +3384,29 @@
         <v>9.8872867320181257</v>
       </c>
       <c r="AA25" s="4">
+        <v>8.3984151130049117E-2</v>
+      </c>
+      <c r="AB25" s="4">
         <v>0.81070745697896751</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AD25" s="4">
         <v>93.506396484374989</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AE25" s="4">
         <v>1.5643719248002519</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AF25" s="4">
         <v>174.96959686279297</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AG25" s="4">
         <v>53.788795471191406</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AI25" s="4">
         <v>0</v>
       </c>
-      <c r="AJ25" s="13">
+      <c r="AK25" s="13">
         <v>0.78</v>
       </c>
-      <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9"/>
@@ -3442,30 +3495,32 @@
         <v>4.9886401172675443</v>
       </c>
       <c r="AA26" s="4">
+        <v>4.9354554685969908E-2</v>
+      </c>
+      <c r="AB26" s="4">
         <v>5.4212454212454221E-2</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AD26" s="4">
         <v>106.76951904296874</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AE26" s="4">
         <v>0.83925683923958516</v>
       </c>
-      <c r="AE26" s="4">
+      <c r="AF26" s="4">
         <v>321.23519897460938</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AG26" s="4">
         <v>102.95999908447266</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AH26" s="4">
         <v>11.200798034667969</v>
       </c>
-      <c r="AH26" s="4">
+      <c r="AI26" s="4">
         <v>186.04651162790699</v>
       </c>
-      <c r="AJ26" s="13">
+      <c r="AK26" s="13">
         <v>1.0920000000000001</v>
       </c>
-      <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9"/>
@@ -3554,27 +3609,29 @@
         <v>10.246226637924767</v>
       </c>
       <c r="AA27" s="4">
+        <v>5.0708431391718982E-2</v>
+      </c>
+      <c r="AB27" s="4">
         <v>0.31034482758620696</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AD27" s="4">
         <v>118.62551651000976</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AE27" s="4">
         <v>0.84735450945047042</v>
       </c>
-      <c r="AE27" s="4">
+      <c r="AF27" s="4">
         <v>311.62559509277344</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AG27" s="4">
         <v>104.45759582519531</v>
       </c>
-      <c r="AH27" s="4">
+      <c r="AI27" s="4">
         <v>121.82741116751269</v>
       </c>
-      <c r="AJ27" s="13">
+      <c r="AK27" s="13">
         <v>2.5895999999999999</v>
       </c>
-      <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9"/>
@@ -3663,27 +3720,29 @@
         <v>8.1506892864013452</v>
       </c>
       <c r="AA28" s="4">
+        <v>4.1769448245546813E-2</v>
+      </c>
+      <c r="AB28" s="4">
         <v>0.53238866396761142</v>
       </c>
-      <c r="AC28" s="4">
+      <c r="AD28" s="4">
         <v>95.899437332153326</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AE28" s="4">
         <v>1.358300225315336</v>
       </c>
-      <c r="AE28" s="4">
+      <c r="AF28" s="4">
         <v>107.20320030000001</v>
       </c>
-      <c r="AF28" s="4">
+      <c r="AG28" s="4">
         <v>46.675198080000001</v>
       </c>
-      <c r="AH28" s="4">
+      <c r="AI28" s="4">
         <v>0</v>
       </c>
-      <c r="AJ28" s="13">
+      <c r="AK28" s="13">
         <v>1.6624000000000001</v>
       </c>
-      <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9"/>
@@ -3772,27 +3831,29 @@
         <v>10.558902587300091</v>
       </c>
       <c r="AA29" s="4">
+        <v>5.6442022441044265E-2</v>
+      </c>
+      <c r="AB29" s="4">
         <v>0.65949820788530455</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AD29" s="4">
         <v>92.264637756347668</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AE29" s="4">
         <v>1.413222879499644</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AF29" s="4">
         <v>123.42719649999999</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AG29" s="4">
         <v>53.913598059999998</v>
       </c>
-      <c r="AH29" s="4">
+      <c r="AI29" s="4">
         <v>0</v>
       </c>
-      <c r="AJ29" s="13">
+      <c r="AK29" s="13">
         <v>1.5911999999999999</v>
       </c>
-      <c r="AK29" s="9"/>
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
@@ -3881,27 +3942,29 @@
         <v>9.9504443357852672</v>
       </c>
       <c r="AA30" s="4">
+        <v>6.2116054238171216E-2</v>
+      </c>
+      <c r="AB30" s="4">
         <v>0.2521087160262418</v>
       </c>
-      <c r="AC30" s="4">
+      <c r="AD30" s="4">
         <v>115.86743774414063</v>
       </c>
-      <c r="AD30" s="4">
+      <c r="AE30" s="4">
         <v>1.0198239533252433</v>
       </c>
-      <c r="AE30" s="4">
+      <c r="AF30" s="4">
         <v>176.34239959999999</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AG30" s="4">
         <v>58.780796530000003</v>
       </c>
-      <c r="AH30" s="4">
+      <c r="AI30" s="4">
         <v>216.2162162162162</v>
       </c>
-      <c r="AJ30" s="13">
+      <c r="AK30" s="13">
         <v>0.74880000000000002</v>
       </c>
-      <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
       <c r="AN30" s="9"/>
@@ -3920,7 +3983,9 @@
       <c r="C31" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="16">
+        <v>2</v>
+      </c>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
@@ -3982,38 +4047,40 @@
         <v>-66.739918518066403</v>
       </c>
       <c r="Y31" s="17">
-        <v>734.01078086576638</v>
+        <v>73.401078086576604</v>
       </c>
       <c r="Z31" s="17">
         <v>14.598550492505685</v>
       </c>
       <c r="AA31" s="4">
+        <v>0.18003877382284195</v>
+      </c>
+      <c r="AB31" s="4">
         <v>0</v>
       </c>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="17">
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="17">
         <v>110.63831787109376</v>
       </c>
-      <c r="AD31" s="17">
+      <c r="AE31" s="17">
         <v>1.1524261134964888</v>
       </c>
-      <c r="AE31" s="17">
+      <c r="AF31" s="17">
         <v>204.54719924926758</v>
       </c>
-      <c r="AF31" s="17">
+      <c r="AG31" s="17">
         <v>81.993598937988281</v>
       </c>
-      <c r="AG31" s="17">
+      <c r="AH31" s="17">
         <v>4.3367996215820313</v>
       </c>
-      <c r="AH31" s="4">
+      <c r="AI31" s="4">
         <v>0</v>
       </c>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="16">
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16">
         <v>0.43081000000000003</v>
       </c>
-      <c r="AK31" s="9"/>
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9"/>
@@ -4032,7 +4099,9 @@
       <c r="C32" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="16">
+        <v>2</v>
+      </c>
       <c r="E32" s="16" t="s">
         <v>64</v>
       </c>
@@ -4088,45 +4157,48 @@
         <v>3.3384017944335938</v>
       </c>
       <c r="W32" s="17">
-        <v>21.455201466878243</v>
+        <v>214.55201466878199</v>
       </c>
       <c r="X32" s="17">
         <v>-61.579438400268558</v>
       </c>
       <c r="Y32" s="17">
-        <v>178.02064383377206</v>
+        <v>71.8020643833772</v>
       </c>
       <c r="Z32" s="17">
         <v>28.064124724547373</v>
       </c>
       <c r="AA32" s="4">
+        <v>0.13080336145000457</v>
+      </c>
+      <c r="AB32" s="4">
         <v>0</v>
       </c>
-      <c r="AB32" s="16"/>
-      <c r="AC32" s="17">
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="17">
         <v>100.39223594665526</v>
       </c>
-      <c r="AD32" s="17">
+      <c r="AE32" s="17">
         <v>0.96640296866911513</v>
       </c>
-      <c r="AE32" s="17">
+      <c r="AF32" s="17">
         <v>233.87519073486328</v>
       </c>
-      <c r="AF32" s="17">
+      <c r="AG32" s="17">
         <v>89.855995178222656</v>
       </c>
-      <c r="AG32" s="17">
+      <c r="AH32" s="17">
         <v>1.1400032043457</v>
       </c>
-      <c r="AH32" s="4">
+      <c r="AI32" s="4">
         <v>0</v>
       </c>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="17">
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="17">
         <v>1.2791999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>0</v>
       </c>
@@ -4136,7 +4208,9 @@
       <c r="C33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="16">
+        <v>2</v>
+      </c>
       <c r="E33" s="16" t="s">
         <v>33</v>
       </c>
@@ -4192,45 +4266,48 @@
         <v>0.592803955078125</v>
       </c>
       <c r="W33" s="17">
-        <v>20.872787475585945</v>
+        <v>208.72787475585901</v>
       </c>
       <c r="X33" s="17">
         <v>-66.683758544921872</v>
       </c>
       <c r="Y33" s="17">
-        <v>725.17940791155434</v>
+        <v>72.517940791155397</v>
       </c>
       <c r="Z33" s="17">
         <v>10.95783049103898</v>
       </c>
       <c r="AA33" s="4">
+        <v>5.249816539288743E-2</v>
+      </c>
+      <c r="AB33" s="4">
         <v>0</v>
       </c>
-      <c r="AB33" s="16"/>
-      <c r="AC33" s="17">
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="17">
         <v>103.31255798339845</v>
       </c>
-      <c r="AD33" s="17">
+      <c r="AE33" s="17">
         <v>1.3988190451550651</v>
       </c>
-      <c r="AE33" s="17">
+      <c r="AF33" s="17">
         <v>171.10079193115234</v>
       </c>
-      <c r="AF33" s="17">
+      <c r="AG33" s="17">
         <v>67.142398834228516</v>
       </c>
-      <c r="AG33" s="17">
+      <c r="AH33" s="17">
         <v>4.5551986694335938</v>
       </c>
-      <c r="AH33" s="4">
+      <c r="AI33" s="4">
         <v>0</v>
       </c>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="17">
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="17">
         <v>0.87360000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>0</v>
       </c>
@@ -4240,7 +4317,9 @@
       <c r="C34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="16"/>
+      <c r="D34" s="16">
+        <v>2</v>
+      </c>
       <c r="E34" s="16" t="s">
         <v>64</v>
       </c>
@@ -4296,7 +4375,7 @@
         <v>0.59279632568359375</v>
       </c>
       <c r="W34" s="17">
-        <v>12.46960957845052</v>
+        <v>124.696095784505</v>
       </c>
       <c r="X34" s="17">
         <v>-60.967918395996094</v>
@@ -4308,33 +4387,36 @@
         <v>10.0092573819168</v>
       </c>
       <c r="AA34" s="4">
+        <v>8.0269212271203857E-2</v>
+      </c>
+      <c r="AB34" s="4">
         <v>0</v>
       </c>
-      <c r="AB34" s="16"/>
-      <c r="AC34" s="17">
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="17">
         <v>90.420717239379883</v>
       </c>
-      <c r="AD34" s="17">
+      <c r="AE34" s="17">
         <v>0.99890532531570386</v>
       </c>
-      <c r="AE34" s="17">
+      <c r="AF34" s="17">
         <v>179.33759307861328</v>
       </c>
-      <c r="AF34" s="17">
+      <c r="AG34" s="17">
         <v>80.870397567749023</v>
       </c>
-      <c r="AG34" s="17">
+      <c r="AH34" s="17">
         <v>3.61920166015625</v>
       </c>
-      <c r="AH34" s="4">
+      <c r="AI34" s="4">
         <v>0</v>
       </c>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="17">
+      <c r="AJ34" s="16"/>
+      <c r="AK34" s="17">
         <v>0.12479999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>0</v>
       </c>
@@ -4344,7 +4426,9 @@
       <c r="C35" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="16"/>
+      <c r="D35" s="16">
+        <v>2</v>
+      </c>
       <c r="E35" s="16" t="s">
         <v>48</v>
       </c>
@@ -4412,31 +4496,34 @@
         <v>28.358970315624227</v>
       </c>
       <c r="AA35" s="4">
+        <v>0.84265277758912727</v>
+      </c>
+      <c r="AB35" s="4">
         <v>0</v>
       </c>
-      <c r="AB35" s="16"/>
-      <c r="AC35" s="16">
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16">
         <v>115.85807647705079</v>
       </c>
-      <c r="AD35" s="16">
+      <c r="AE35" s="16">
         <v>1.3819744675938068</v>
       </c>
-      <c r="AE35" s="16">
+      <c r="AF35" s="16">
         <v>225.51359558105469</v>
       </c>
-      <c r="AF35" s="16">
+      <c r="AG35" s="16">
         <v>59.654396057128906</v>
       </c>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="4">
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="4">
         <v>0</v>
       </c>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16">
+      <c r="AJ35" s="16"/>
+      <c r="AK35" s="16">
         <v>1.248</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>0</v>
       </c>
@@ -4446,7 +4533,9 @@
       <c r="C36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="16">
+        <v>2</v>
+      </c>
       <c r="E36" s="16" t="s">
         <v>65</v>
       </c>
@@ -4514,33 +4603,36 @@
         <v>34.398840828848918</v>
       </c>
       <c r="AA36" s="4">
+        <v>1.1147892193177849</v>
+      </c>
+      <c r="AB36" s="4">
         <v>0</v>
       </c>
-      <c r="AB36" s="16"/>
-      <c r="AC36" s="17">
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="17">
         <v>113.76455535888672</v>
       </c>
-      <c r="AD36" s="17">
+      <c r="AE36" s="17">
         <v>0.95222826860390342</v>
       </c>
-      <c r="AE36" s="17">
+      <c r="AF36" s="17">
         <v>297.14878845214844</v>
       </c>
-      <c r="AF36" s="17">
+      <c r="AG36" s="17">
         <v>86.985597133636475</v>
       </c>
-      <c r="AG36" s="17">
+      <c r="AH36" s="17">
         <v>0.75872689938398363</v>
       </c>
-      <c r="AH36" s="4">
+      <c r="AI36" s="4">
         <v>0</v>
       </c>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="17">
+      <c r="AJ36" s="16"/>
+      <c r="AK36" s="17">
         <v>1.1544000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>0</v>
       </c>
@@ -4550,7 +4642,9 @@
       <c r="C37" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="16"/>
+      <c r="D37" s="16">
+        <v>2</v>
+      </c>
       <c r="E37" s="16" t="s">
         <v>66</v>
       </c>
@@ -4612,37 +4706,40 @@
         <v>-70.181278228759766</v>
       </c>
       <c r="Y37" s="17">
-        <v>-165.60092913592374</v>
+        <v>165.60092913592399</v>
       </c>
       <c r="Z37" s="17">
-        <v>50.252262471822824</v>
+        <v>20.252262471822799</v>
       </c>
       <c r="AA37" s="4">
+        <v>1.0202595229263018</v>
+      </c>
+      <c r="AB37" s="4">
         <v>0</v>
       </c>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="17">
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="17">
         <v>97.606077194213867</v>
       </c>
-      <c r="AD37" s="17">
+      <c r="AE37" s="17">
         <v>2.055660764276098</v>
       </c>
-      <c r="AE37" s="17">
+      <c r="AF37" s="17">
         <v>136.53119850158691</v>
       </c>
-      <c r="AF37" s="17">
+      <c r="AG37" s="17">
         <v>35.443197518587112</v>
       </c>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="4">
+      <c r="AH37" s="16"/>
+      <c r="AI37" s="4">
         <v>0</v>
       </c>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="17">
+      <c r="AJ37" s="16"/>
+      <c r="AK37" s="17">
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>0</v>
       </c>
@@ -4652,7 +4749,9 @@
       <c r="C38" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="16"/>
+      <c r="D38" s="16">
+        <v>2</v>
+      </c>
       <c r="E38" s="16" t="s">
         <v>67</v>
       </c>
@@ -4708,7 +4807,7 @@
         <v>2.5271987915039063</v>
       </c>
       <c r="W38" s="17">
-        <v>27.41440709431965</v>
+        <v>274.14407094319603</v>
       </c>
       <c r="X38" s="17">
         <v>-64.877278518676761</v>
@@ -4720,31 +4819,34 @@
         <v>34.786725186667695</v>
       </c>
       <c r="AA38" s="4">
+        <v>0.12689213035679942</v>
+      </c>
+      <c r="AB38" s="4">
         <v>0</v>
       </c>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="17">
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="17">
         <v>96.295678329467762</v>
       </c>
-      <c r="AD38" s="17">
+      <c r="AE38" s="17">
         <v>1.368265627645826</v>
       </c>
-      <c r="AE38" s="17">
+      <c r="AF38" s="17">
         <v>174.47039794921875</v>
       </c>
-      <c r="AF38" s="17">
+      <c r="AG38" s="17">
         <v>64.771199226379395</v>
       </c>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="4">
+      <c r="AH38" s="16"/>
+      <c r="AI38" s="4">
         <v>0</v>
       </c>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="17">
+      <c r="AJ38" s="16"/>
+      <c r="AK38" s="17">
         <v>1.8404</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>0</v>
       </c>
@@ -4754,7 +4856,9 @@
       <c r="C39" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="16"/>
+      <c r="D39" s="16">
+        <v>3</v>
+      </c>
       <c r="E39" s="16" t="s">
         <v>68</v>
       </c>
@@ -4810,45 +4914,48 @@
         <v>1.1543960571289063</v>
       </c>
       <c r="W39" s="17">
-        <v>22.245602925618467</v>
+        <v>222.45602925618499</v>
       </c>
       <c r="X39" s="17">
         <v>-78.25271835327149</v>
       </c>
       <c r="Y39" s="17">
-        <v>873.32677524132293</v>
+        <v>87.332677524132293</v>
       </c>
       <c r="Z39" s="17">
         <v>11.763446148098266</v>
       </c>
       <c r="AA39" s="4">
+        <v>5.2879871080280937E-2</v>
+      </c>
+      <c r="AB39" s="4">
         <v>0</v>
       </c>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="17">
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="17">
         <v>110.91911926269532</v>
       </c>
-      <c r="AD39" s="17">
+      <c r="AE39" s="17">
         <v>1.503601709681945</v>
       </c>
-      <c r="AE39" s="17">
+      <c r="AF39" s="17">
         <v>167.98079681396484</v>
       </c>
-      <c r="AF39" s="17">
+      <c r="AG39" s="17">
         <v>62.524801731109619</v>
       </c>
-      <c r="AG39" s="17">
+      <c r="AH39" s="17">
         <v>4.7736015319824219</v>
       </c>
-      <c r="AH39" s="4">
+      <c r="AI39" s="4">
         <v>0</v>
       </c>
-      <c r="AI39" s="16"/>
-      <c r="AJ39" s="17">
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="17">
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>0</v>
       </c>
@@ -4858,7 +4965,9 @@
       <c r="C40" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="16"/>
+      <c r="D40" s="16">
+        <v>3</v>
+      </c>
       <c r="E40" s="16" t="s">
         <v>47</v>
       </c>
@@ -4914,47 +5023,78 @@
         <v>0.6864013671875</v>
       </c>
       <c r="W40" s="17">
-        <v>28.183993021647112</v>
+        <v>281.83993021647098</v>
       </c>
       <c r="X40" s="17">
         <v>-71.666399383544928</v>
       </c>
       <c r="Y40" s="17">
-        <v>675.98464604688286</v>
+        <v>67.598464604688303</v>
       </c>
       <c r="Z40" s="17">
         <v>11.150314314311965</v>
       </c>
       <c r="AA40" s="4">
+        <v>3.956257832503654E-2</v>
+      </c>
+      <c r="AB40" s="4">
         <v>0</v>
       </c>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="17">
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="17">
         <v>93.693598175048834</v>
       </c>
-      <c r="AD40" s="17">
+      <c r="AE40" s="17">
         <v>1.3876212074342362</v>
       </c>
-      <c r="AE40" s="17">
+      <c r="AF40" s="17">
         <v>137.40479469299316</v>
       </c>
-      <c r="AF40" s="17">
+      <c r="AG40" s="17">
         <v>60.403200149536133</v>
       </c>
-      <c r="AG40" s="17">
+      <c r="AH40" s="17">
         <v>1.466400146484375</v>
       </c>
-      <c r="AH40" s="4">
+      <c r="AI40" s="4">
         <v>0</v>
       </c>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="17">
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="17">
         <v>1.0296000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="D52" s="4"/>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AA45" s="5"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AA46" s="5"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F0E5C-F5EE-4238-9E10-6148ED262823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50238AF5-3A11-486A-B768-3F9C96768198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="1956" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="1764" yWindow="1644" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:AR55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:AN55"/>
+      <selection activeCell="V55" sqref="V55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5025,14 +5025,14 @@
       <c r="W40" s="17">
         <v>281.83993021647098</v>
       </c>
-      <c r="X40" s="17">
-        <v>-71.666399383544928</v>
+      <c r="X40" s="4">
+        <v>-72.44015808105469</v>
       </c>
       <c r="Y40" s="17">
         <v>67.598464604688303</v>
       </c>
       <c r="Z40" s="17">
-        <v>11.150314314311965</v>
+        <v>10.751513272341715</v>
       </c>
       <c r="AA40" s="4">
         <v>3.956257832503654E-2</v>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50238AF5-3A11-486A-B768-3F9C96768198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A47DA-933E-46C3-99CD-5B923C9B1A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="1644" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="3372" yWindow="1608" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F27D14E-5218-4C12-A051-D8A9399440F5}">
-  <dimension ref="A1:AR55"/>
+  <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="V55" sqref="V55"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,7 @@
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -784,7 +784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -819,8 +819,20 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -930,8 +942,19 @@
       <c r="AP3" s="9"/>
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
     </row>
-    <row r="4" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1044,8 +1067,19 @@
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
     </row>
-    <row r="5" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1158,8 +1192,19 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
     </row>
-    <row r="6" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1269,8 +1314,19 @@
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
     </row>
-    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1380,8 +1436,19 @@
       <c r="AP7" s="10"/>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
     </row>
-    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -1494,8 +1561,19 @@
       <c r="AP8" s="10"/>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
     </row>
-    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1608,8 +1686,19 @@
       <c r="AP9" s="10"/>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="10"/>
+      <c r="AZ9" s="10"/>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10"/>
+      <c r="BC9" s="10"/>
     </row>
-    <row r="10" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1722,8 +1811,19 @@
       <c r="AP10" s="10"/>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
     </row>
-    <row r="11" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -1836,8 +1936,19 @@
       <c r="AP11" s="10"/>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
     </row>
-    <row r="12" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1950,8 +2061,19 @@
       <c r="AP12" s="9"/>
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
     </row>
-    <row r="13" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2064,8 +2186,19 @@
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
       <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
     </row>
-    <row r="14" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2178,8 +2311,19 @@
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
       <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
     </row>
-    <row r="15" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2289,8 +2433,19 @@
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
       <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="9"/>
     </row>
-    <row r="16" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2403,8 +2558,19 @@
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
       <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
     </row>
-    <row r="17" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2517,8 +2683,19 @@
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
       <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
     </row>
-    <row r="18" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2628,8 +2805,19 @@
       <c r="AP18" s="9"/>
       <c r="AQ18" s="9"/>
       <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
     </row>
-    <row r="19" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -2739,8 +2927,19 @@
       <c r="AP19" s="9"/>
       <c r="AQ19" s="9"/>
       <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
     </row>
-    <row r="20" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2853,8 +3052,19 @@
       <c r="AP20" s="9"/>
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
     </row>
-    <row r="21" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2964,8 +3174,19 @@
       <c r="AP21" s="9"/>
       <c r="AQ21" s="9"/>
       <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
     </row>
-    <row r="22" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -3075,8 +3296,19 @@
       <c r="AP22" s="9"/>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
     </row>
-    <row r="23" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -3189,8 +3421,19 @@
       <c r="AP23" s="9"/>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
     </row>
-    <row r="24" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>0</v>
       </c>
@@ -3303,8 +3546,19 @@
       <c r="AP24" s="9"/>
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
     </row>
-    <row r="25" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -3414,8 +3668,19 @@
       <c r="AP25" s="9"/>
       <c r="AQ25" s="9"/>
       <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
     </row>
-    <row r="26" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>0</v>
       </c>
@@ -3528,8 +3793,19 @@
       <c r="AP26" s="9"/>
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
     </row>
-    <row r="27" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>0</v>
       </c>
@@ -3639,8 +3915,19 @@
       <c r="AP27" s="9"/>
       <c r="AQ27" s="9"/>
       <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
     </row>
-    <row r="28" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -3750,8 +4037,19 @@
       <c r="AP28" s="9"/>
       <c r="AQ28" s="9"/>
       <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
     </row>
-    <row r="29" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>0</v>
       </c>
@@ -3861,8 +4159,19 @@
       <c r="AP29" s="9"/>
       <c r="AQ29" s="9"/>
       <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="9"/>
+      <c r="AV29" s="9"/>
+      <c r="AW29" s="9"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
     </row>
-    <row r="30" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:55" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>0</v>
       </c>
@@ -3972,8 +4281,19 @@
       <c r="AP30" s="9"/>
       <c r="AQ30" s="9"/>
       <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="9"/>
+      <c r="AV30" s="9"/>
+      <c r="AW30" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="9"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>0</v>
       </c>
@@ -4089,7 +4409,7 @@
       <c r="AQ31" s="9"/>
       <c r="AR31" s="9"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>0</v>
       </c>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A47DA-933E-46C3-99CD-5B923C9B1A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC7D7AA-FE71-4913-9F92-E1A2E2D6CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3372" yWindow="1608" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="1632" yWindow="2496" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:BC55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3459,10 +3459,10 @@
         <v>11.624000000000001</v>
       </c>
       <c r="I24" s="4">
-        <v>69.984999999999999</v>
+        <v>59.984999999999999</v>
       </c>
       <c r="J24" s="4">
-        <v>301.70600000000002</v>
+        <v>201.70599999999999</v>
       </c>
       <c r="K24" s="4">
         <v>2.7280000000000002</v>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC7D7AA-FE71-4913-9F92-E1A2E2D6CF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C627C-6194-4641-A5E1-7482FC3D21A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1632" yWindow="2496" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="3288" yWindow="1920" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:BC55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1177,7 @@
         <v>246.35519409179688</v>
       </c>
       <c r="AH5" s="1">
-        <v>80.745601654052734</v>
+        <v>8.0745601654052699</v>
       </c>
       <c r="AI5" s="1">
         <v>129.03225806451613</v>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C627C-6194-4641-A5E1-7482FC3D21A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5127891-AF0B-4DC9-BEFE-52641B63538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3288" yWindow="1920" windowWidth="21336" windowHeight="13488" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="-21810" yWindow="2205" windowWidth="21330" windowHeight="13485" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F27D14E-5218-4C12-A051-D8A9399440F5}">
   <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="AM15" sqref="AM15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5127891-AF0B-4DC9-BEFE-52641B63538D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA81EB1-FF5E-4871-A84A-43FF4304E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21810" yWindow="2205" windowWidth="21330" windowHeight="13485" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="-27285" yWindow="1860" windowWidth="21330" windowHeight="13485" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:BC55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,6 +783,9 @@
       <c r="AK1" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:55" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
@@ -819,6 +822,9 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
       <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
       <c r="AT2" s="8"/>
@@ -917,6 +923,9 @@
       <c r="AB3" s="1">
         <v>0.64740566037735858</v>
       </c>
+      <c r="AC3" s="1">
+        <v>20</v>
+      </c>
       <c r="AD3" s="1">
         <v>96.632637023925781</v>
       </c>
@@ -932,11 +941,14 @@
       <c r="AI3" s="1">
         <v>141.59292035398229</v>
       </c>
+      <c r="AJ3" s="18">
+        <v>33.333333333333336</v>
+      </c>
       <c r="AK3" s="14">
         <v>7.3</v>
       </c>
       <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
+      <c r="AM3" s="9"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="9"/>
@@ -1039,6 +1051,9 @@
       <c r="AB4" s="1">
         <v>0.40902474526928667</v>
       </c>
+      <c r="AC4" s="1">
+        <v>18</v>
+      </c>
       <c r="AD4" s="1">
         <v>94.33631706237793</v>
       </c>
@@ -1056,6 +1071,9 @@
       </c>
       <c r="AI4" s="1">
         <v>149.53271028037383</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>30</v>
       </c>
       <c r="AK4" s="11">
         <v>7.6752000000000002</v>
@@ -1164,6 +1182,9 @@
       <c r="AB5" s="1">
         <v>0.44479004665629862</v>
       </c>
+      <c r="AC5" s="1">
+        <v>22</v>
+      </c>
       <c r="AD5" s="1">
         <v>102.34319569514349</v>
       </c>
@@ -1181,6 +1202,9 @@
       </c>
       <c r="AI5" s="1">
         <v>129.03225806451613</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>36.666666666666671</v>
       </c>
       <c r="AK5" s="15">
         <v>8.5488</v>
@@ -1289,6 +1313,9 @@
       <c r="AB6" s="1">
         <v>0.1075268817204301</v>
       </c>
+      <c r="AC6" s="1">
+        <v>18</v>
+      </c>
       <c r="AD6" s="1">
         <v>80.72063751220702</v>
       </c>
@@ -1303,6 +1330,9 @@
       </c>
       <c r="AI6" s="1">
         <v>166.66666666666669</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>30</v>
       </c>
       <c r="AK6" s="11">
         <v>6.8639999999999999</v>
@@ -1411,6 +1441,9 @@
       <c r="AB7" s="2">
         <v>0.13219094247246022</v>
       </c>
+      <c r="AC7" s="2">
+        <v>27</v>
+      </c>
       <c r="AD7" s="2">
         <v>80.689438629150388</v>
       </c>
@@ -1426,11 +1459,14 @@
       <c r="AI7" s="2">
         <v>176.99115044247787</v>
       </c>
+      <c r="AJ7" s="1">
+        <v>45</v>
+      </c>
       <c r="AK7" s="11">
         <v>8.4239999999999995</v>
       </c>
       <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
+      <c r="AM7" s="10"/>
       <c r="AN7" s="9"/>
       <c r="AO7" s="9"/>
       <c r="AP7" s="10"/>
@@ -1533,6 +1569,9 @@
       <c r="AB8" s="2">
         <v>0.28003696857670984</v>
       </c>
+      <c r="AC8" s="2">
+        <v>28</v>
+      </c>
       <c r="AD8" s="2">
         <v>74.655358123779294</v>
       </c>
@@ -1550,6 +1589,9 @@
       </c>
       <c r="AI8" s="2">
         <v>115.46391752577317</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>46.666666666666671</v>
       </c>
       <c r="AK8" s="12">
         <v>8.2368000000000006</v>
@@ -1658,6 +1700,9 @@
       <c r="AB9" s="3">
         <v>0.42873432155074115</v>
       </c>
+      <c r="AC9" s="2">
+        <v>8</v>
+      </c>
       <c r="AD9" s="3">
         <v>85.475517272949219</v>
       </c>
@@ -1675,6 +1720,9 @@
       </c>
       <c r="AI9" s="2">
         <v>238.80597014925371</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>13.333333333333334</v>
       </c>
       <c r="AK9" s="12">
         <v>6.8015999999999996</v>
@@ -1783,6 +1831,9 @@
       <c r="AB10" s="3">
         <v>0.65454545454545454</v>
       </c>
+      <c r="AC10" s="2">
+        <v>12</v>
+      </c>
       <c r="AD10" s="3">
         <v>76.764478874206546</v>
       </c>
@@ -1800,6 +1851,9 @@
       </c>
       <c r="AI10" s="2">
         <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>20</v>
       </c>
       <c r="AK10" s="12">
         <v>4.3368000000000002</v>
@@ -1908,6 +1962,9 @@
       <c r="AB11" s="3">
         <v>0.57412935323383085</v>
       </c>
+      <c r="AC11" s="2">
+        <v>21</v>
+      </c>
       <c r="AD11" s="3">
         <v>76.078076267242437</v>
       </c>
@@ -1925,6 +1982,9 @@
       </c>
       <c r="AI11" s="3">
         <v>271.18644067796612</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>35</v>
       </c>
       <c r="AK11" s="12">
         <v>5.7408000000000001</v>
@@ -2033,6 +2093,9 @@
       <c r="AB12" s="1">
         <v>0.31731984829329962</v>
       </c>
+      <c r="AC12" s="1">
+        <v>14</v>
+      </c>
       <c r="AD12" s="1">
         <v>112.04543991088866</v>
       </c>
@@ -2051,11 +2114,14 @@
       <c r="AI12" s="1">
         <v>197.53086419753089</v>
       </c>
+      <c r="AJ12" s="2">
+        <v>23.333333333333336</v>
+      </c>
       <c r="AK12" s="12">
         <v>9.5784000000000002</v>
       </c>
       <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
+      <c r="AM12" s="9"/>
       <c r="AN12" s="10"/>
       <c r="AO12" s="10"/>
       <c r="AP12" s="9"/>
@@ -2158,6 +2224,9 @@
       <c r="AB13" s="1">
         <v>0.44677419354838716</v>
       </c>
+      <c r="AC13" s="1">
+        <v>17</v>
+      </c>
       <c r="AD13" s="1">
         <v>94.769998550415039</v>
       </c>
@@ -2175,6 +2244,9 @@
       </c>
       <c r="AI13" s="1">
         <v>242.42424242424241</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>28.333333333333336</v>
       </c>
       <c r="AK13" s="11">
         <v>5.3040000000000003</v>
@@ -2283,6 +2355,9 @@
       <c r="AB14" s="1">
         <v>0.6560509554140127</v>
       </c>
+      <c r="AC14" s="1">
+        <v>5</v>
+      </c>
       <c r="AD14" s="1">
         <v>99.989756774902332</v>
       </c>
@@ -2300,6 +2375,9 @@
       </c>
       <c r="AI14" s="1">
         <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>8.3333333333333339</v>
       </c>
       <c r="AK14" s="11">
         <v>3.2136</v>
@@ -2408,6 +2486,9 @@
       <c r="AB15" s="1">
         <v>0.57171117705242325</v>
       </c>
+      <c r="AC15" s="1">
+        <v>19</v>
+      </c>
       <c r="AD15" s="1">
         <v>96.417357635498036</v>
       </c>
@@ -2422,6 +2503,9 @@
       </c>
       <c r="AI15" s="1">
         <v>238.80597014925371</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>31.666666666666668</v>
       </c>
       <c r="AK15" s="11">
         <v>11.638</v>
@@ -2530,6 +2614,9 @@
       <c r="AB16" s="1">
         <v>0.35352422907488984</v>
       </c>
+      <c r="AC16" s="1">
+        <v>12</v>
+      </c>
       <c r="AD16" s="1">
         <v>102.14879684448243</v>
       </c>
@@ -2547,6 +2634,9 @@
       </c>
       <c r="AI16" s="1">
         <v>164.94845360824741</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>20</v>
       </c>
       <c r="AK16" s="11">
         <v>10.358000000000001</v>
@@ -2655,6 +2745,9 @@
       <c r="AB17" s="1">
         <v>0.63364485981308405</v>
       </c>
+      <c r="AC17" s="1">
+        <v>11</v>
+      </c>
       <c r="AD17" s="1">
         <v>88.224238967895502</v>
       </c>
@@ -2672,6 +2765,9 @@
       </c>
       <c r="AI17" s="1">
         <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>18.333333333333336</v>
       </c>
       <c r="AK17" s="11">
         <v>5.0544000000000002</v>
@@ -2780,6 +2876,9 @@
       <c r="AB18" s="1">
         <v>0.40428571428571425</v>
       </c>
+      <c r="AC18" s="1">
+        <v>24</v>
+      </c>
       <c r="AD18" s="1">
         <v>106.14239578247071</v>
       </c>
@@ -2794,6 +2893,9 @@
       </c>
       <c r="AI18" s="1">
         <v>147.23926380368098</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>40</v>
       </c>
       <c r="AK18" s="15">
         <v>4.1807999999999996</v>
@@ -2902,6 +3004,9 @@
       <c r="AB19" s="1">
         <v>0.12285714285714286</v>
       </c>
+      <c r="AC19" s="1">
+        <v>12</v>
+      </c>
       <c r="AD19" s="1">
         <v>114.99383659362792</v>
       </c>
@@ -2916,6 +3021,9 @@
       </c>
       <c r="AI19" s="1">
         <v>140.35087719298244</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>20</v>
       </c>
       <c r="AK19" s="11">
         <v>6.6768000000000001</v>
@@ -3024,6 +3132,9 @@
       <c r="AB20" s="1">
         <v>0.59379844961240313</v>
       </c>
+      <c r="AC20" s="1">
+        <v>16</v>
+      </c>
       <c r="AD20" s="1">
         <v>114.17327804565429</v>
       </c>
@@ -3041,6 +3152,9 @@
       </c>
       <c r="AI20" s="1">
         <v>0</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>26.666666666666668</v>
       </c>
       <c r="AK20" s="11">
         <v>7.1135999999999999</v>
@@ -3149,6 +3263,9 @@
       <c r="AB21" s="1">
         <v>0</v>
       </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
       <c r="AD21" s="1">
         <v>80.87351722717284</v>
       </c>
@@ -3162,6 +3279,9 @@
         <v>75.503997802734375</v>
       </c>
       <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>0</v>
       </c>
       <c r="AK21" s="11">
@@ -3271,6 +3391,9 @@
       <c r="AB22" s="1">
         <v>0</v>
       </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
       <c r="AD22" s="1">
         <v>98.336158370971674</v>
       </c>
@@ -3284,6 +3407,9 @@
         <v>41.184000253677368</v>
       </c>
       <c r="AI22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="1">
         <v>0</v>
       </c>
       <c r="AK22" s="11">
@@ -3393,6 +3519,9 @@
       <c r="AB23" s="1">
         <v>0.76903870162297139</v>
       </c>
+      <c r="AC23" s="1">
+        <v>13</v>
+      </c>
       <c r="AD23" s="1">
         <v>87.481678009033203</v>
       </c>
@@ -3410,6 +3539,9 @@
       </c>
       <c r="AI23" s="1">
         <v>0</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>21.666666666666668</v>
       </c>
       <c r="AK23" s="11">
         <v>2.4024000000000001</v>
@@ -3518,6 +3650,9 @@
       <c r="AB24" s="4">
         <v>0.7065693430656933</v>
       </c>
+      <c r="AC24" s="4">
+        <v>26</v>
+      </c>
       <c r="AD24" s="4">
         <v>86.636157989501953</v>
       </c>
@@ -3535,6 +3670,9 @@
       </c>
       <c r="AI24" s="4">
         <v>0</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>43.333333333333336</v>
       </c>
       <c r="AK24" s="13">
         <v>1.0296000000000001</v>
@@ -3643,6 +3781,9 @@
       <c r="AB25" s="4">
         <v>0.81070745697896751</v>
       </c>
+      <c r="AC25" s="4">
+        <v>19</v>
+      </c>
       <c r="AD25" s="4">
         <v>93.506396484374989</v>
       </c>
@@ -3657,6 +3798,9 @@
       </c>
       <c r="AI25" s="4">
         <v>0</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>31.666666666666668</v>
       </c>
       <c r="AK25" s="13">
         <v>0.78</v>
@@ -3765,6 +3909,9 @@
       <c r="AB26" s="4">
         <v>5.4212454212454221E-2</v>
       </c>
+      <c r="AC26" s="4">
+        <v>5</v>
+      </c>
       <c r="AD26" s="4">
         <v>106.76951904296874</v>
       </c>
@@ -3782,6 +3929,9 @@
       </c>
       <c r="AI26" s="4">
         <v>186.04651162790699</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>8.3333333333333339</v>
       </c>
       <c r="AK26" s="13">
         <v>1.0920000000000001</v>
@@ -3890,6 +4040,9 @@
       <c r="AB27" s="4">
         <v>0.31034482758620696</v>
       </c>
+      <c r="AC27" s="4">
+        <v>33</v>
+      </c>
       <c r="AD27" s="4">
         <v>118.62551651000976</v>
       </c>
@@ -3904,6 +4057,9 @@
       </c>
       <c r="AI27" s="4">
         <v>121.82741116751269</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>55</v>
       </c>
       <c r="AK27" s="13">
         <v>2.5895999999999999</v>
@@ -4012,6 +4168,9 @@
       <c r="AB28" s="4">
         <v>0.53238866396761142</v>
       </c>
+      <c r="AC28" s="4">
+        <v>19</v>
+      </c>
       <c r="AD28" s="4">
         <v>95.899437332153326</v>
       </c>
@@ -4026,6 +4185,9 @@
       </c>
       <c r="AI28" s="4">
         <v>0</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>31.666666666666668</v>
       </c>
       <c r="AK28" s="13">
         <v>1.6624000000000001</v>
@@ -4134,6 +4296,9 @@
       <c r="AB29" s="4">
         <v>0.65949820788530455</v>
       </c>
+      <c r="AC29" s="4">
+        <v>16</v>
+      </c>
       <c r="AD29" s="4">
         <v>92.264637756347668</v>
       </c>
@@ -4148,6 +4313,9 @@
       </c>
       <c r="AI29" s="4">
         <v>0</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>26.666666666666668</v>
       </c>
       <c r="AK29" s="13">
         <v>1.5911999999999999</v>
@@ -4256,6 +4424,9 @@
       <c r="AB30" s="4">
         <v>0.2521087160262418</v>
       </c>
+      <c r="AC30" s="4">
+        <v>9</v>
+      </c>
       <c r="AD30" s="4">
         <v>115.86743774414063</v>
       </c>
@@ -4270,6 +4441,9 @@
       </c>
       <c r="AI30" s="4">
         <v>216.2162162162162</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>15</v>
       </c>
       <c r="AK30" s="13">
         <v>0.74880000000000002</v>
@@ -4378,7 +4552,9 @@
       <c r="AB31" s="4">
         <v>0</v>
       </c>
-      <c r="AC31" s="16"/>
+      <c r="AC31" s="16">
+        <v>3</v>
+      </c>
       <c r="AD31" s="17">
         <v>110.63831787109376</v>
       </c>
@@ -4397,7 +4573,9 @@
       <c r="AI31" s="4">
         <v>0</v>
       </c>
-      <c r="AJ31" s="16"/>
+      <c r="AJ31" s="4">
+        <v>5</v>
+      </c>
       <c r="AK31" s="16">
         <v>0.43081000000000003</v>
       </c>
@@ -4494,7 +4672,9 @@
       <c r="AB32" s="4">
         <v>0</v>
       </c>
-      <c r="AC32" s="16"/>
+      <c r="AC32" s="16">
+        <v>3</v>
+      </c>
       <c r="AD32" s="17">
         <v>100.39223594665526</v>
       </c>
@@ -4513,7 +4693,9 @@
       <c r="AI32" s="4">
         <v>0</v>
       </c>
-      <c r="AJ32" s="16"/>
+      <c r="AJ32" s="4">
+        <v>5</v>
+      </c>
       <c r="AK32" s="17">
         <v>1.2791999999999999</v>
       </c>
@@ -4603,7 +4785,9 @@
       <c r="AB33" s="4">
         <v>0</v>
       </c>
-      <c r="AC33" s="16"/>
+      <c r="AC33" s="16">
+        <v>4</v>
+      </c>
       <c r="AD33" s="17">
         <v>103.31255798339845</v>
       </c>
@@ -4622,7 +4806,9 @@
       <c r="AI33" s="4">
         <v>0</v>
       </c>
-      <c r="AJ33" s="16"/>
+      <c r="AJ33" s="4">
+        <v>6.666666666666667</v>
+      </c>
       <c r="AK33" s="17">
         <v>0.87360000000000004</v>
       </c>
@@ -4712,7 +4898,9 @@
       <c r="AB34" s="4">
         <v>0</v>
       </c>
-      <c r="AC34" s="16"/>
+      <c r="AC34" s="16">
+        <v>0</v>
+      </c>
       <c r="AD34" s="17">
         <v>90.420717239379883</v>
       </c>
@@ -4731,7 +4919,9 @@
       <c r="AI34" s="4">
         <v>0</v>
       </c>
-      <c r="AJ34" s="16"/>
+      <c r="AJ34" s="4">
+        <v>0</v>
+      </c>
       <c r="AK34" s="17">
         <v>0.12479999999999999</v>
       </c>
@@ -4821,7 +5011,9 @@
       <c r="AB35" s="4">
         <v>0</v>
       </c>
-      <c r="AC35" s="16"/>
+      <c r="AC35" s="16">
+        <v>5</v>
+      </c>
       <c r="AD35" s="16">
         <v>115.85807647705079</v>
       </c>
@@ -4838,7 +5030,9 @@
       <c r="AI35" s="4">
         <v>0</v>
       </c>
-      <c r="AJ35" s="16"/>
+      <c r="AJ35" s="4">
+        <v>8.3333333333333339</v>
+      </c>
       <c r="AK35" s="16">
         <v>1.248</v>
       </c>
@@ -4928,7 +5122,9 @@
       <c r="AB36" s="4">
         <v>0</v>
       </c>
-      <c r="AC36" s="16"/>
+      <c r="AC36" s="16">
+        <v>2</v>
+      </c>
       <c r="AD36" s="17">
         <v>113.76455535888672</v>
       </c>
@@ -4947,7 +5143,9 @@
       <c r="AI36" s="4">
         <v>0</v>
       </c>
-      <c r="AJ36" s="16"/>
+      <c r="AJ36" s="4">
+        <v>3.3333333333333335</v>
+      </c>
       <c r="AK36" s="17">
         <v>1.1544000000000001</v>
       </c>
@@ -5037,7 +5235,9 @@
       <c r="AB37" s="4">
         <v>0</v>
       </c>
-      <c r="AC37" s="16"/>
+      <c r="AC37" s="16">
+        <v>2</v>
+      </c>
       <c r="AD37" s="17">
         <v>97.606077194213867</v>
       </c>
@@ -5054,7 +5254,9 @@
       <c r="AI37" s="4">
         <v>0</v>
       </c>
-      <c r="AJ37" s="16"/>
+      <c r="AJ37" s="4">
+        <v>3.3333333333333335</v>
+      </c>
       <c r="AK37" s="17">
         <v>0.93600000000000005</v>
       </c>
@@ -5144,7 +5346,9 @@
       <c r="AB38" s="4">
         <v>0</v>
       </c>
-      <c r="AC38" s="16"/>
+      <c r="AC38" s="16">
+        <v>0</v>
+      </c>
       <c r="AD38" s="17">
         <v>96.295678329467762</v>
       </c>
@@ -5161,7 +5365,9 @@
       <c r="AI38" s="4">
         <v>0</v>
       </c>
-      <c r="AJ38" s="16"/>
+      <c r="AJ38" s="4">
+        <v>0</v>
+      </c>
       <c r="AK38" s="17">
         <v>1.8404</v>
       </c>
@@ -5251,7 +5457,9 @@
       <c r="AB39" s="4">
         <v>0</v>
       </c>
-      <c r="AC39" s="16"/>
+      <c r="AC39" s="16">
+        <v>4</v>
+      </c>
       <c r="AD39" s="17">
         <v>110.91911926269532</v>
       </c>
@@ -5270,7 +5478,9 @@
       <c r="AI39" s="4">
         <v>0</v>
       </c>
-      <c r="AJ39" s="16"/>
+      <c r="AJ39" s="4">
+        <v>6.666666666666667</v>
+      </c>
       <c r="AK39" s="17">
         <v>0.83599999999999997</v>
       </c>
@@ -5360,7 +5570,9 @@
       <c r="AB40" s="4">
         <v>0</v>
       </c>
-      <c r="AC40" s="16"/>
+      <c r="AC40" s="16">
+        <v>7</v>
+      </c>
       <c r="AD40" s="17">
         <v>93.693598175048834</v>
       </c>
@@ -5379,7 +5591,9 @@
       <c r="AI40" s="4">
         <v>0</v>
       </c>
-      <c r="AJ40" s="16"/>
+      <c r="AJ40" s="4">
+        <v>11.666666666666668</v>
+      </c>
       <c r="AK40" s="17">
         <v>1.0296000000000001</v>
       </c>

--- a/Data/in/Retro_ACC_PAG.xlsx
+++ b/Data/in/Retro_ACC_PAG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA81EB1-FF5E-4871-A84A-43FF4304E729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E23B7E0-DB9B-40AA-BE7A-CA0C520CB193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27285" yWindow="1860" windowWidth="21330" windowHeight="13485" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{195E0AFB-190A-439D-8920-FC903F239F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
   <dimension ref="A1:BC55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+      <selection activeCell="AP43" sqref="AP43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
